--- a/config/default/forms/contact/PLACE_TYPE-edit.xlsx
+++ b/config/default/forms/contact/PLACE_TYPE-edit.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\contact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F62802-55A4-4A81-823D-C888FA128E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="266">
   <si>
     <t>type</t>
   </si>
@@ -95,7 +113,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -113,19 +131,19 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ID of the logged in user</t>
+    <t>Contact ID of the logged in user</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>PLACE_TYPE</t>
@@ -146,7 +164,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated to be a group, due to 3889</t>
+    <t>Updated to be a group, due to 3889</t>
   </si>
   <si>
     <t>calculate</t>
@@ -158,79 +176,73 @@
     <t>../name</t>
   </si>
   <si>
-    <t xml:space="preserve">Seems redundant, but needed to access name from choice label</t>
-  </si>
-  <si>
-    <t>db:person</t>
+    <t>Seems redundant, but needed to access name from choice label</t>
   </si>
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact primaire</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the Primary Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Kontak Utama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua Mwasiliwa mkuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez le contact primaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no_generated_name</t>
+    <t>Primary Contact</t>
+  </si>
+  <si>
+    <t>प्राथमिक कॉंटॅक्ट</t>
+  </si>
+  <si>
+    <t>Kontak Utama</t>
+  </si>
+  <si>
+    <t>Mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति</t>
+  </si>
+  <si>
+    <t>Contact primaire</t>
+  </si>
+  <si>
+    <t>Select the Primary Contact</t>
+  </si>
+  <si>
+    <t>प्राथमिक कॉंटॅक्ट चुनें</t>
+  </si>
+  <si>
+    <t>Pilih Kontak Utama</t>
+  </si>
+  <si>
+    <t>Chagua Mwasiliwa mkuu</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Sélectionnez le contact primaire</t>
+  </si>
+  <si>
+    <t>select_one yes_no_generated_name</t>
   </si>
   <si>
     <t>is_name_generated</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to name the place after the primary contact: "${generated_name}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे "${generated_name}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name}"?</t>
+    <t>Would you like to name the place after the primary contact: "${generated_name}"?</t>
+  </si>
+  <si>
+    <t>क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे "${generated_name}"?</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin nama tempat setelah kontak utama: "${generated_name}"?</t>
   </si>
   <si>
     <t xml:space="preserve"> Je, Ungependa kuita eneo hii kama mwasilishi mkuu wa eneo hii? "${generated_name}"?</t>
   </si>
   <si>
-    <t xml:space="preserve">के तपाई यस स्थानको प्राथमिक सम्पर्क व्यक्तिलाई नाम दिन चाहनुहुन्छ "${generated_name}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous nommer l'endroit: "${generated_name}"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(${_id}) or selected( . , 'true') or boolean(${_id})</t>
+    <t>के तपाई यस स्थानको प्राथमिक सम्पर्क व्यक्तिलाई नाम दिन चाहनुहुन्छ "${generated_name}"?</t>
+  </si>
+  <si>
+    <t>Voulez-vous nommer l'endroit: "${generated_name}"?</t>
+  </si>
+  <si>
+    <t>not(${_id}) or selected( . , 'true') or boolean(${_id})</t>
   </si>
   <si>
     <t>columns-pack</t>
@@ -239,10 +251,10 @@
     <t>boolean(${_id})</t>
   </si>
   <si>
-    <t xml:space="preserve">if( ${generated_name} = ../name, 'true', 'false')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (not(${_id}), 'false', .)</t>
+    <t>if( ${generated_name} = ../name, 'true', 'false')</t>
+  </si>
+  <si>
+    <t>if (not(${_id}), 'false', .)</t>
   </si>
   <si>
     <t>generated_name</t>
@@ -251,49 +263,49 @@
     <t>${generated_name_translation}</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of this ${place_type_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">इस स्थान का नाम ${place_type_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masukkan nama tempat ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaza jina la eneo hii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">यस स्थानको नाम लेख्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom pour ${place_type_translation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean(${_id}) or not(${_id}) or not(selected(${is_name_generated}, 'true'))  or not(selected(${is_name_generated}, 'yes'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name}, .)</t>
+    <t>Name of this ${place_type_translation}</t>
+  </si>
+  <si>
+    <t>इस स्थान का नाम ${place_type_translation}</t>
+  </si>
+  <si>
+    <t>Masukkan nama tempat ini</t>
+  </si>
+  <si>
+    <t>Jaza jina la eneo hii</t>
+  </si>
+  <si>
+    <t>यस स्थानको नाम लेख्नुहोस्</t>
+  </si>
+  <si>
+    <t>Nom pour ${place_type_translation}</t>
+  </si>
+  <si>
+    <t>boolean(${_id}) or not(${_id}) or not(selected(${is_name_generated}, 'true'))  or not(selected(${is_name_generated}, 'yes'))</t>
+  </si>
+  <si>
+    <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name}, .)</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eksternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहिरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code externe</t>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>बाहरी ID</t>
+  </si>
+  <si>
+    <t>Eksternal ID</t>
+  </si>
+  <si>
+    <t>Namba ya nje</t>
+  </si>
+  <si>
+    <t>बाहिरी ID</t>
+  </si>
+  <si>
+    <t>Code externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -317,7 +329,7 @@
     <t>geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
+    <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
     <t>meta</t>
@@ -326,7 +338,7 @@
     <t>created_by</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannot change and will be hidden</t>
+    <t>Cannot change and will be hidden</t>
   </si>
   <si>
     <t>created_by_person_uuid</t>
@@ -341,7 +353,7 @@
     <t>../../../inputs/user/name</t>
   </si>
   <si>
-    <t xml:space="preserve">Will be hidden</t>
+    <t>Will be hidden</t>
   </si>
   <si>
     <t>last_edited_by_person_uuid</t>
@@ -359,10 +371,10 @@
     <t>init</t>
   </si>
   <si>
-    <t xml:space="preserve">field-list hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one place_type</t>
+    <t>field-list hidden</t>
+  </si>
+  <si>
+    <t>select_one place_type</t>
   </si>
   <si>
     <t>place_type</t>
@@ -377,7 +389,7 @@
     <t>jr:choice-name(${place_type},'${place_type}')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one generated_name</t>
+    <t>select_one generated_name</t>
   </si>
   <si>
     <t>select_generated_name</t>
@@ -386,7 +398,7 @@
     <t>generated_name_translation</t>
   </si>
   <si>
-    <t xml:space="preserve">if (boolean(${_id}), jr:choice-name(${select_generated_name},'${select_generated_name}'), '')</t>
+    <t>if (boolean(${_id}), jr:choice-name(${select_generated_name},'${select_generated_name}'), '')</t>
   </si>
   <si>
     <t>list_name</t>
@@ -443,43 +455,43 @@
     <t>new_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a new person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">एक नया व्यक्ति बनाएं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buat orang baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongeza mtumizi mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नयाँ व्यक्ति बनाउनुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une nouvelle personne</t>
+    <t>Create a new person</t>
+  </si>
+  <si>
+    <t>एक नया व्यक्ति बनाएं</t>
+  </si>
+  <si>
+    <t>Buat orang baru</t>
+  </si>
+  <si>
+    <t>Ongeza mtumizi mpya</t>
+  </si>
+  <si>
+    <t>नयाँ व्यक्ति बनाउनुहोस्</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle personne</t>
   </si>
   <si>
     <t>old_person</t>
   </si>
   <si>
-    <t xml:space="preserve">Select an existing person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मौजूदा व्यक्ति चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih orang yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua mtumizi aliyesajlishwa apo awali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">व्यक्ति छान्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisir une personne existant</t>
+    <t>Select an existing person</t>
+  </si>
+  <si>
+    <t>मौजूदा व्यक्ति चुनें</t>
+  </si>
+  <si>
+    <t>Pilih orang yang ada</t>
+  </si>
+  <si>
+    <t>Chagua mtumizi aliyesajlishwa apo awali</t>
+  </si>
+  <si>
+    <t>व्यक्ति छान्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisir une personne existant</t>
   </si>
   <si>
     <t>roles</t>
@@ -491,16 +503,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
+    <t>सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t>Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -509,22 +521,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
+    <t>CHW Supervisor</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t>Kader Pengawas</t>
+  </si>
+  <si>
+    <t>Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t>Superviseur ASC</t>
   </si>
   <si>
     <t>nurse</t>
@@ -548,22 +560,22 @@
     <t>manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manajer Fasilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meneja wa Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य संस्था प्रमुख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personnel Médical</t>
+    <t>Facility Manager</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केंद्र के मैनजर</t>
+  </si>
+  <si>
+    <t>Manajer Fasilitas</t>
+  </si>
+  <si>
+    <t>Meneja wa Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य संस्था प्रमुख</t>
+  </si>
+  <si>
+    <t>Personnel Médical</t>
   </si>
   <si>
     <t>other</t>
@@ -608,40 +620,40 @@
     <t>manual</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the name manually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मैन्युअल रूप से नाम दर्ज करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masukkan nama secara manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaza jina mwenyewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नाम आफैँ दिनुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrer le nom manuellement</t>
+    <t>Enter the name manually</t>
+  </si>
+  <si>
+    <t>मैन्युअल रूप से नाम दर्ज करें</t>
+  </si>
+  <si>
+    <t>Masukkan nama secara manual</t>
+  </si>
+  <si>
+    <t>Jaza jina mwenyewe</t>
+  </si>
+  <si>
+    <t>नाम आफैँ दिनुहोस्</t>
+  </si>
+  <si>
+    <t>Entrer le nom manuellement</t>
   </si>
   <si>
     <t>automatic</t>
   </si>
   <si>
-    <t xml:space="preserve">Named after primary contact (eg Mary District)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक कॉंटॅक्ट का नाम दिया गया (जैसे अंजलि का जिला)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinamakan setelah kontak utama (misalnya kabupaten Dewi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ita eneo hii kama mwasilishi mkuu wa eneo hii (Kwa mfano, Wilaya ya Mary)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्राथमिक सम्पर्क व्यक्तिको आधारमा नामकरण गरियो (जस्तै: सरिताको जिल्ला)</t>
+    <t>Named after primary contact (eg Mary District)</t>
+  </si>
+  <si>
+    <t>प्राथमिक कॉंटॅक्ट का नाम दिया गया (जैसे अंजलि का जिला)</t>
+  </si>
+  <si>
+    <t>Dinamakan setelah kontak utama (misalnya kabupaten Dewi)</t>
+  </si>
+  <si>
+    <t>Ita eneo hii kama mwasilishi mkuu wa eneo hii (Kwa mfano, Wilaya ya Mary)</t>
+  </si>
+  <si>
+    <t>प्राथमिक सम्पर्क व्यक्तिको आधारमा नामकरण गरियो (जस्तै: सरिताको जिल्ला)</t>
   </si>
   <si>
     <t xml:space="preserve">Le nom est donné automatiquement </t>
@@ -650,31 +662,31 @@
     <t>yes_no_generated_name</t>
   </si>
   <si>
-    <t xml:space="preserve">ठिक छ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, I want to name it manually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidak, saya ingin nama itu secara manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana, ningependa kuijaza mwenyewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">म आफैँ नाम दिन चाहन्छु</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non, je veux nommer ça manuellement</t>
+    <t>ठिक छ</t>
+  </si>
+  <si>
+    <t>No, I want to name it manually</t>
+  </si>
+  <si>
+    <t>नहीं, मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
+  </si>
+  <si>
+    <t>Tidak, saya ingin nama itu secara manual</t>
+  </si>
+  <si>
+    <t>Hapana, ningependa kuijaza mwenyewe</t>
+  </si>
+  <si>
+    <t>म आफैँ नाम दिन चाहन्छु</t>
+  </si>
+  <si>
+    <t>Non, je veux nommer ça manuellement</t>
   </si>
   <si>
     <t>district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -698,19 +710,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé</t>
+    <t>स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>Kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -731,58 +743,58 @@
     <t>Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">${contact_name}'s Health Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का ज़िला</t>
+    <t>${contact_name}'s Health Facility</t>
+  </si>
+  <si>
+    <t>${contact_name} का ज़िला</t>
   </si>
   <si>
     <t xml:space="preserve">Kabupaten ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">WIlaya ya  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को जिल्ला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का स्वास्थ्य केंद्र</t>
+    <t>WIlaya ya  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को जिल्ला</t>
+  </si>
+  <si>
+    <t>District de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Area</t>
+  </si>
+  <si>
+    <t>${contact_name} का स्वास्थ्य केंद्र</t>
   </si>
   <si>
     <t xml:space="preserve">Fasilitas Kesehatan ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Kituo cha afya cha  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé de ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}'s Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name} का क्षेत्र</t>
+    <t>Kituo cha afya cha  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé de ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Household</t>
+  </si>
+  <si>
+    <t>${contact_name} का क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah ${contact_name} </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo ya  ${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_name}को क्षेत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone de ${contact_name}</t>
+    <t>Eneo ya  ${contact_name}</t>
+  </si>
+  <si>
+    <t>${contact_name}को क्षेत्र</t>
+  </si>
+  <si>
+    <t>Zone de ${contact_name}</t>
   </si>
   <si>
     <t>form_title</t>
@@ -806,7 +818,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit PLACE_NAME</t>
+    <t>Edit PLACE_NAME</t>
   </si>
   <si>
     <t>contact:PLACE_TYPE:edit</t>
@@ -816,43 +828,46 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <b/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="11">
@@ -927,66 +942,66 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,295 +1012,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1488,51 +1223,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.710000000000001"/>
-    <col customWidth="1" min="2" max="2" width="22.710000000000001"/>
-    <col customWidth="1" min="3" max="3" width="24.289999999999999"/>
-    <col customWidth="1" min="4" max="4" width="38.710000000000001"/>
-    <col customWidth="1" min="5" max="5" width="54.57"/>
-    <col customWidth="1" min="6" max="6" width="23.57"/>
-    <col customWidth="1" min="7" max="7" width="55.140000000000001"/>
-    <col customWidth="1" min="8" max="8" width="8.1400000000000006"/>
-    <col customWidth="1" min="9" max="9" width="16.43"/>
-    <col customWidth="1" min="10" max="10" width="8.1400000000000006"/>
-    <col customWidth="1" min="11" max="11" width="11.43"/>
-    <col customWidth="1" min="12" max="12" width="10.710000000000001"/>
-    <col customWidth="1" min="13" max="13" width="15.140000000000001"/>
-    <col customWidth="1" min="14" max="14" width="32"/>
-    <col customWidth="1" min="15" max="15" width="50.140000000000001"/>
-    <col customWidth="1" min="16" max="16" width="48.710000000000001"/>
-    <col customWidth="1" min="17" max="17" width="31.140000000000001"/>
-    <col customWidth="1" min="18" max="18" width="33.43"/>
-    <col customWidth="1" min="19" max="19" width="36.289999999999999"/>
-    <col customWidth="1" min="20" max="21" width="8.1400000000000006"/>
-    <col customWidth="1" min="22" max="22" width="33.859999999999999"/>
-    <col customWidth="1" min="23" max="24" width="8.1400000000000006"/>
-    <col customWidth="1" min="25" max="25" width="8.7100000000000009"/>
-    <col customWidth="1" min="26" max="36" width="7.71"/>
-    <col customWidth="1" min="37" max="38" width="15.140000000000001"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
+    <col min="14" max="14" width="32" customWidth="1"/>
+    <col min="15" max="15" width="50.109375" customWidth="1"/>
+    <col min="16" max="16" width="48.6640625" customWidth="1"/>
+    <col min="17" max="17" width="31.109375" customWidth="1"/>
+    <col min="18" max="18" width="33.44140625" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" customWidth="1"/>
+    <col min="20" max="21" width="8.109375" customWidth="1"/>
+    <col min="22" max="22" width="33.88671875" customWidth="1"/>
+    <col min="23" max="24" width="8.109375" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="26" max="36" width="7.6640625" customWidth="1"/>
+    <col min="37" max="38" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1363,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:38" ht="14.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -1682,7 +1421,7 @@
       <c r="AK2" s="10"/>
       <c r="AL2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" ht="14.4">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1477,7 @@
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:38" ht="14.25" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -1796,7 +1535,7 @@
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1854,7 +1593,7 @@
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -1912,7 +1651,7 @@
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" ht="14.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -1954,7 +1693,7 @@
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:38" ht="14.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1996,7 +1735,7 @@
       <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:38" ht="14.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2036,7 +1775,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:38" ht="14.25" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2094,7 +1833,7 @@
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:38" ht="14.25" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
@@ -2152,7 +1891,7 @@
       <c r="AK11" s="16"/>
       <c r="AL11" s="16"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:38" ht="14.25" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>39</v>
       </c>
@@ -2210,7 +1949,7 @@
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:38" ht="14.25" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
@@ -2268,7 +2007,7 @@
       <c r="AK13" s="16"/>
       <c r="AL13" s="16"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:38" ht="14.25" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>30</v>
       </c>
@@ -2326,7 +2065,7 @@
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:38" ht="14.25" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>44</v>
       </c>
@@ -2374,36 +2113,36 @@
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:38" ht="14.25" customHeight="1">
       <c r="A16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -2411,23 +2150,23 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="U16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="V16" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -2444,7 +2183,7 @@
       <c r="AK16" s="16"/>
       <c r="AL16" s="16"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:38" ht="14.25" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>36</v>
       </c>
@@ -2486,48 +2225,48 @@
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:38" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="K18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
@@ -2539,7 +2278,7 @@
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
@@ -2554,12 +2293,12 @@
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:38" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2575,7 +2314,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -2600,7 +2339,7 @@
       <c r="AK19" s="16"/>
       <c r="AL19" s="16"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:38" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>30</v>
       </c>
@@ -2608,36 +2347,36 @@
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="G20" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>41</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
@@ -2662,31 +2401,31 @@
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:38" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="G21" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
@@ -2718,7 +2457,7 @@
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:38" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>30</v>
       </c>
@@ -2726,28 +2465,28 @@
         <v>25</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
@@ -2776,12 +2515,12 @@
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:38" ht="14.25" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -2797,7 +2536,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
@@ -2822,12 +2561,12 @@
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:38" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>28</v>
@@ -2880,12 +2619,12 @@
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:38" ht="14.25" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>28</v>
@@ -2925,7 +2664,7 @@
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
@@ -2940,12 +2679,12 @@
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:38" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>28</v>
@@ -2998,12 +2737,12 @@
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:38" ht="14.25" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>28</v>
@@ -3054,12 +2793,12 @@
       <c r="AK27" s="16"/>
       <c r="AL27" s="16"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:38" ht="14.25" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -3075,7 +2814,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
@@ -3087,7 +2826,7 @@
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA28" s="16"/>
       <c r="AB28" s="16"/>
@@ -3102,12 +2841,12 @@
       <c r="AK28" s="16"/>
       <c r="AL28" s="16"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:38" ht="14.25" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -3123,7 +2862,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
@@ -3148,12 +2887,12 @@
       <c r="AK29" s="16"/>
       <c r="AL29" s="16"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:38" ht="14.25" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -3169,7 +2908,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -3194,7 +2933,7 @@
       <c r="AK30" s="16"/>
       <c r="AL30" s="16"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:38" ht="14.25" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
@@ -3236,7 +2975,7 @@
       <c r="AK31" s="16"/>
       <c r="AL31" s="16"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:38" ht="14.25" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>36</v>
       </c>
@@ -3278,7 +3017,7 @@
       <c r="AK32" s="16"/>
       <c r="AL32" s="16"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:38" ht="14.25" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3318,12 +3057,12 @@
       <c r="AK33" s="8"/>
       <c r="AL33" s="8"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:38" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>28</v>
@@ -3347,7 +3086,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -3376,12 +3115,12 @@
       <c r="AK34" s="16"/>
       <c r="AL34" s="16"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:38" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>28</v>
@@ -3411,7 +3150,7 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
       <c r="P35" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
@@ -3436,12 +3175,12 @@
       <c r="AK35" s="16"/>
       <c r="AL35" s="16"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:38" ht="13.5" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -3457,7 +3196,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
@@ -3482,12 +3221,12 @@
       <c r="AK36" s="16"/>
       <c r="AL36" s="16"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:38" ht="14.25" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>28</v>
@@ -3517,7 +3256,7 @@
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -3542,12 +3281,12 @@
       <c r="AK37" s="16"/>
       <c r="AL37" s="16"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:38" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -3563,7 +3302,7 @@
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -3588,7 +3327,7 @@
       <c r="AK38" s="16"/>
       <c r="AL38" s="16"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:38" ht="14.25" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>36</v>
       </c>
@@ -3631,48 +3370,44 @@
       <c r="AL39" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.140000000000001"/>
-    <col customWidth="1" min="2" max="2" width="9.7100000000000009"/>
-    <col customWidth="1" min="3" max="3" width="26.710000000000001"/>
-    <col customWidth="1" min="4" max="4" width="46"/>
-    <col customWidth="1" min="5" max="5" width="51.57"/>
-    <col customWidth="1" min="6" max="6" width="49.140000000000001"/>
-    <col customWidth="1" min="7" max="7" width="35"/>
-    <col customWidth="1" min="8" max="8" width="7.71"/>
-    <col customWidth="1" min="9" max="9" width="17.57"/>
-    <col customWidth="1" min="10" max="13" width="7.71"/>
-    <col customWidth="1" min="14" max="26" width="15.140000000000001"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" customWidth="1"/>
+    <col min="6" max="6" width="49.109375" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>3</v>
@@ -3710,31 +3445,31 @@
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="D2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="G2" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -3754,31 +3489,31 @@
       <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="G3" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -3798,31 +3533,31 @@
       <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="E4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="F4" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -3842,31 +3577,31 @@
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="E5" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
@@ -3886,31 +3621,31 @@
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="D6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="E6" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
@@ -3930,31 +3665,31 @@
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="E7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -3974,31 +3709,31 @@
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="E8" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="G8" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -4018,31 +3753,31 @@
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="E9" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="G9" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>181</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -4062,31 +3797,31 @@
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="E10" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="F10" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>187</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -4106,31 +3841,31 @@
       <c r="Y10" s="27"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="E11" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -4150,31 +3885,31 @@
       <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="D12" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="E12" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="F12" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="G12" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -4194,31 +3929,31 @@
       <c r="Y12" s="27"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="E13" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="F13" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4238,31 +3973,31 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="E14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="F14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="G14" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -4282,31 +4017,31 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="F15" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="G15" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -4325,31 +4060,31 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="E16" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>223</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -4369,31 +4104,31 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="E17" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="F17" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="G17" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -4413,31 +4148,31 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="E18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="F18" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>236</v>
-      </c>
       <c r="G18" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -4457,31 +4192,31 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="27"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
       <c r="A19" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="G19" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>242</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -4501,31 +4236,31 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
       <c r="A20" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="G20" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -4545,31 +4280,31 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
       <c r="A21" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C21" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="F21" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="G21" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -4590,57 +4325,53 @@
       <c r="Z21" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.140000000000001"/>
-    <col customWidth="1" min="2" max="2" width="12.710000000000001"/>
-    <col customWidth="1" min="3" max="3" width="20.140000000000001"/>
-    <col customWidth="1" min="4" max="4" width="5.71"/>
-    <col customWidth="1" min="5" max="5" width="14.289999999999999"/>
-    <col customWidth="1" min="6" max="6" width="34"/>
-    <col customWidth="1" min="7" max="16" width="7.71"/>
-    <col customWidth="1" min="17" max="26" width="15.140000000000001"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="16" width="7.6640625" customWidth="1"/>
+    <col min="17" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>260</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>262</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
@@ -4662,24 +4393,24 @@
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="36" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-08-19 14-44</v>
+        <v>2025-05-01 22-47</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -4701,7 +4432,7 @@
       <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -4729,7 +4460,7 @@
       <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4757,7 +4488,7 @@
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -4785,7 +4516,7 @@
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -4813,7 +4544,7 @@
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -4841,7 +4572,7 @@
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -4869,7 +4600,7 @@
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -4897,7 +4628,7 @@
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -4925,7 +4656,7 @@
       <c r="Y10" s="27"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -4953,7 +4684,7 @@
       <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -4981,7 +4712,7 @@
       <c r="Y12" s="27"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -5009,7 +4740,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -5037,7 +4768,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -5065,7 +4796,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -5093,7 +4824,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -5121,7 +4852,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -5149,7 +4880,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="27"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -5177,7 +4908,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="27"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -5205,7 +4936,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="27"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -5233,7 +4964,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -5261,7 +4992,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -5289,7 +5020,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="27"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -5317,7 +5048,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="27"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -5345,7 +5076,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="27"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -5373,7 +5104,7 @@
       <c r="Y26" s="27"/>
       <c r="Z26" s="27"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -5401,7 +5132,7 @@
       <c r="Y27" s="27"/>
       <c r="Z27" s="27"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -5429,7 +5160,7 @@
       <c r="Y28" s="27"/>
       <c r="Z28" s="27"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -5457,7 +5188,7 @@
       <c r="Y29" s="27"/>
       <c r="Z29" s="27"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -5485,7 +5216,7 @@
       <c r="Y30" s="27"/>
       <c r="Z30" s="27"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -5513,7 +5244,7 @@
       <c r="Y31" s="27"/>
       <c r="Z31" s="27"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -5541,7 +5272,7 @@
       <c r="Y32" s="27"/>
       <c r="Z32" s="27"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -5569,7 +5300,7 @@
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -5597,7 +5328,7 @@
       <c r="Y34" s="27"/>
       <c r="Z34" s="27"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -5625,7 +5356,7 @@
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -5653,7 +5384,7 @@
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -5681,7 +5412,7 @@
       <c r="Y37" s="27"/>
       <c r="Z37" s="27"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -5709,7 +5440,7 @@
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -5737,7 +5468,7 @@
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -5765,7 +5496,7 @@
       <c r="Y40" s="27"/>
       <c r="Z40" s="27"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -5793,7 +5524,7 @@
       <c r="Y41" s="27"/>
       <c r="Z41" s="27"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -5821,7 +5552,7 @@
       <c r="Y42" s="27"/>
       <c r="Z42" s="27"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -5849,7 +5580,7 @@
       <c r="Y43" s="27"/>
       <c r="Z43" s="27"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -5877,7 +5608,7 @@
       <c r="Y44" s="27"/>
       <c r="Z44" s="27"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -5905,7 +5636,7 @@
       <c r="Y45" s="27"/>
       <c r="Z45" s="27"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -5933,7 +5664,7 @@
       <c r="Y46" s="27"/>
       <c r="Z46" s="27"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -5961,7 +5692,7 @@
       <c r="Y47" s="27"/>
       <c r="Z47" s="27"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -5989,7 +5720,7 @@
       <c r="Y48" s="27"/>
       <c r="Z48" s="27"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -6017,7 +5748,7 @@
       <c r="Y49" s="27"/>
       <c r="Z49" s="27"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -6045,7 +5776,7 @@
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -6073,7 +5804,7 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -6101,7 +5832,7 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -6129,7 +5860,7 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -6157,7 +5888,7 @@
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -6185,7 +5916,7 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -6213,7 +5944,7 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -6241,7 +5972,7 @@
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -6269,7 +6000,7 @@
       <c r="Y58" s="27"/>
       <c r="Z58" s="27"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -6297,7 +6028,7 @@
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -6325,7 +6056,7 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -6353,7 +6084,7 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -6381,7 +6112,7 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -6409,7 +6140,7 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
@@ -6437,7 +6168,7 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
@@ -6465,7 +6196,7 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -6493,7 +6224,7 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
@@ -6521,7 +6252,7 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="27"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -6549,7 +6280,7 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
@@ -6577,7 +6308,7 @@
       <c r="Y69" s="27"/>
       <c r="Z69" s="27"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
@@ -6605,7 +6336,7 @@
       <c r="Y70" s="27"/>
       <c r="Z70" s="27"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
@@ -6633,7 +6364,7 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
@@ -6661,7 +6392,7 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
@@ -6689,7 +6420,7 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
@@ -6717,7 +6448,7 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -6745,7 +6476,7 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
@@ -6773,7 +6504,7 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
@@ -6801,7 +6532,7 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
@@ -6829,7 +6560,7 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
@@ -6857,7 +6588,7 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
@@ -6885,7 +6616,7 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
@@ -6913,7 +6644,7 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
@@ -6941,7 +6672,7 @@
       <c r="Y82" s="27"/>
       <c r="Z82" s="27"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -6969,7 +6700,7 @@
       <c r="Y83" s="27"/>
       <c r="Z83" s="27"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -6997,7 +6728,7 @@
       <c r="Y84" s="27"/>
       <c r="Z84" s="27"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -7025,7 +6756,7 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -7053,7 +6784,7 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -7081,7 +6812,7 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -7109,7 +6840,7 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -7137,7 +6868,7 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -7165,7 +6896,7 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -7193,7 +6924,7 @@
       <c r="Y91" s="27"/>
       <c r="Z91" s="27"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -7221,7 +6952,7 @@
       <c r="Y92" s="27"/>
       <c r="Z92" s="27"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -7249,7 +6980,7 @@
       <c r="Y93" s="27"/>
       <c r="Z93" s="27"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -7277,7 +7008,7 @@
       <c r="Y94" s="27"/>
       <c r="Z94" s="27"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -7305,7 +7036,7 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -7333,7 +7064,7 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -7361,7 +7092,7 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -7389,7 +7120,7 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -7417,7 +7148,7 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -7445,7 +7176,7 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
@@ -7473,7 +7204,7 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -7501,7 +7232,7 @@
       <c r="Y102" s="27"/>
       <c r="Z102" s="27"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
@@ -7529,7 +7260,7 @@
       <c r="Y103" s="27"/>
       <c r="Z103" s="27"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
@@ -7557,7 +7288,7 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
@@ -7585,7 +7316,7 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
@@ -7613,7 +7344,7 @@
       <c r="Y106" s="27"/>
       <c r="Z106" s="27"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
@@ -7641,7 +7372,7 @@
       <c r="Y107" s="27"/>
       <c r="Z107" s="27"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
@@ -7669,7 +7400,7 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
@@ -7697,7 +7428,7 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
@@ -7725,7 +7456,7 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
@@ -7753,7 +7484,7 @@
       <c r="Y111" s="27"/>
       <c r="Z111" s="27"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
@@ -7781,7 +7512,7 @@
       <c r="Y112" s="27"/>
       <c r="Z112" s="27"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
@@ -7809,7 +7540,7 @@
       <c r="Y113" s="27"/>
       <c r="Z113" s="27"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
@@ -7837,7 +7568,7 @@
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
       <c r="C115" s="27"/>
@@ -7865,7 +7596,7 @@
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
@@ -7893,7 +7624,7 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
       <c r="C117" s="27"/>
@@ -7921,7 +7652,7 @@
       <c r="Y117" s="27"/>
       <c r="Z117" s="27"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
@@ -7949,7 +7680,7 @@
       <c r="Y118" s="27"/>
       <c r="Z118" s="27"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="27"/>
       <c r="B119" s="27"/>
       <c r="C119" s="27"/>
@@ -7977,7 +7708,7 @@
       <c r="Y119" s="27"/>
       <c r="Z119" s="27"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
       <c r="C120" s="27"/>
@@ -8005,7 +7736,7 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
@@ -8033,7 +7764,7 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
       <c r="C122" s="27"/>
@@ -8061,7 +7792,7 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
       <c r="C123" s="27"/>
@@ -8089,7 +7820,7 @@
       <c r="Y123" s="27"/>
       <c r="Z123" s="27"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
       <c r="C124" s="27"/>
@@ -8117,7 +7848,7 @@
       <c r="Y124" s="27"/>
       <c r="Z124" s="27"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="27"/>
       <c r="B125" s="27"/>
       <c r="C125" s="27"/>
@@ -8145,7 +7876,7 @@
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
       <c r="C126" s="27"/>
@@ -8173,7 +7904,7 @@
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
       <c r="C127" s="27"/>
@@ -8201,7 +7932,7 @@
       <c r="Y127" s="27"/>
       <c r="Z127" s="27"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="27"/>
       <c r="B128" s="27"/>
       <c r="C128" s="27"/>
@@ -8229,7 +7960,7 @@
       <c r="Y128" s="27"/>
       <c r="Z128" s="27"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="27"/>
       <c r="B129" s="27"/>
       <c r="C129" s="27"/>
@@ -8257,7 +7988,7 @@
       <c r="Y129" s="27"/>
       <c r="Z129" s="27"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="27"/>
       <c r="B130" s="27"/>
       <c r="C130" s="27"/>
@@ -8285,7 +8016,7 @@
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="27"/>
       <c r="B131" s="27"/>
       <c r="C131" s="27"/>
@@ -8313,7 +8044,7 @@
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="27"/>
       <c r="B132" s="27"/>
       <c r="C132" s="27"/>
@@ -8341,7 +8072,7 @@
       <c r="Y132" s="27"/>
       <c r="Z132" s="27"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="27"/>
       <c r="B133" s="27"/>
       <c r="C133" s="27"/>
@@ -8369,7 +8100,7 @@
       <c r="Y133" s="27"/>
       <c r="Z133" s="27"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="27"/>
       <c r="B134" s="27"/>
       <c r="C134" s="27"/>
@@ -8397,7 +8128,7 @@
       <c r="Y134" s="27"/>
       <c r="Z134" s="27"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="27"/>
       <c r="B135" s="27"/>
       <c r="C135" s="27"/>
@@ -8425,7 +8156,7 @@
       <c r="Y135" s="27"/>
       <c r="Z135" s="27"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="27"/>
       <c r="B136" s="27"/>
       <c r="C136" s="27"/>
@@ -8453,7 +8184,7 @@
       <c r="Y136" s="27"/>
       <c r="Z136" s="27"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="27"/>
       <c r="B137" s="27"/>
       <c r="C137" s="27"/>
@@ -8481,7 +8212,7 @@
       <c r="Y137" s="27"/>
       <c r="Z137" s="27"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="27"/>
       <c r="B138" s="27"/>
       <c r="C138" s="27"/>
@@ -8509,7 +8240,7 @@
       <c r="Y138" s="27"/>
       <c r="Z138" s="27"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="27"/>
       <c r="B139" s="27"/>
       <c r="C139" s="27"/>
@@ -8537,7 +8268,7 @@
       <c r="Y139" s="27"/>
       <c r="Z139" s="27"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="27"/>
       <c r="B140" s="27"/>
       <c r="C140" s="27"/>
@@ -8565,7 +8296,7 @@
       <c r="Y140" s="27"/>
       <c r="Z140" s="27"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="27"/>
       <c r="B141" s="27"/>
       <c r="C141" s="27"/>
@@ -8593,7 +8324,7 @@
       <c r="Y141" s="27"/>
       <c r="Z141" s="27"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="27"/>
       <c r="B142" s="27"/>
       <c r="C142" s="27"/>
@@ -8621,7 +8352,7 @@
       <c r="Y142" s="27"/>
       <c r="Z142" s="27"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="27"/>
       <c r="B143" s="27"/>
       <c r="C143" s="27"/>
@@ -8649,7 +8380,7 @@
       <c r="Y143" s="27"/>
       <c r="Z143" s="27"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="27"/>
       <c r="B144" s="27"/>
       <c r="C144" s="27"/>
@@ -8677,7 +8408,7 @@
       <c r="Y144" s="27"/>
       <c r="Z144" s="27"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="27"/>
       <c r="B145" s="27"/>
       <c r="C145" s="27"/>
@@ -8705,7 +8436,7 @@
       <c r="Y145" s="27"/>
       <c r="Z145" s="27"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="27"/>
       <c r="B146" s="27"/>
       <c r="C146" s="27"/>
@@ -8733,7 +8464,7 @@
       <c r="Y146" s="27"/>
       <c r="Z146" s="27"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="27"/>
       <c r="B147" s="27"/>
       <c r="C147" s="27"/>
@@ -8761,7 +8492,7 @@
       <c r="Y147" s="27"/>
       <c r="Z147" s="27"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="27"/>
       <c r="B148" s="27"/>
       <c r="C148" s="27"/>
@@ -8789,7 +8520,7 @@
       <c r="Y148" s="27"/>
       <c r="Z148" s="27"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="27"/>
       <c r="B149" s="27"/>
       <c r="C149" s="27"/>
@@ -8817,7 +8548,7 @@
       <c r="Y149" s="27"/>
       <c r="Z149" s="27"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="27"/>
       <c r="B150" s="27"/>
       <c r="C150" s="27"/>
@@ -8845,7 +8576,7 @@
       <c r="Y150" s="27"/>
       <c r="Z150" s="27"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="27"/>
       <c r="B151" s="27"/>
       <c r="C151" s="27"/>
@@ -8873,7 +8604,7 @@
       <c r="Y151" s="27"/>
       <c r="Z151" s="27"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="27"/>
       <c r="B152" s="27"/>
       <c r="C152" s="27"/>
@@ -8901,7 +8632,7 @@
       <c r="Y152" s="27"/>
       <c r="Z152" s="27"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="27"/>
       <c r="B153" s="27"/>
       <c r="C153" s="27"/>
@@ -8929,7 +8660,7 @@
       <c r="Y153" s="27"/>
       <c r="Z153" s="27"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="27"/>
       <c r="B154" s="27"/>
       <c r="C154" s="27"/>
@@ -8957,7 +8688,7 @@
       <c r="Y154" s="27"/>
       <c r="Z154" s="27"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="27"/>
       <c r="B155" s="27"/>
       <c r="C155" s="27"/>
@@ -8985,7 +8716,7 @@
       <c r="Y155" s="27"/>
       <c r="Z155" s="27"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="27"/>
       <c r="B156" s="27"/>
       <c r="C156" s="27"/>
@@ -9013,7 +8744,7 @@
       <c r="Y156" s="27"/>
       <c r="Z156" s="27"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="27"/>
       <c r="B157" s="27"/>
       <c r="C157" s="27"/>
@@ -9041,7 +8772,7 @@
       <c r="Y157" s="27"/>
       <c r="Z157" s="27"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="27"/>
       <c r="B158" s="27"/>
       <c r="C158" s="27"/>
@@ -9069,7 +8800,7 @@
       <c r="Y158" s="27"/>
       <c r="Z158" s="27"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="27"/>
       <c r="B159" s="27"/>
       <c r="C159" s="27"/>
@@ -9097,7 +8828,7 @@
       <c r="Y159" s="27"/>
       <c r="Z159" s="27"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="27"/>
       <c r="B160" s="27"/>
       <c r="C160" s="27"/>
@@ -9125,7 +8856,7 @@
       <c r="Y160" s="27"/>
       <c r="Z160" s="27"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="27"/>
       <c r="B161" s="27"/>
       <c r="C161" s="27"/>
@@ -9153,7 +8884,7 @@
       <c r="Y161" s="27"/>
       <c r="Z161" s="27"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="27"/>
       <c r="B162" s="27"/>
       <c r="C162" s="27"/>
@@ -9181,7 +8912,7 @@
       <c r="Y162" s="27"/>
       <c r="Z162" s="27"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="27"/>
       <c r="B163" s="27"/>
       <c r="C163" s="27"/>
@@ -9209,7 +8940,7 @@
       <c r="Y163" s="27"/>
       <c r="Z163" s="27"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="27"/>
       <c r="B164" s="27"/>
       <c r="C164" s="27"/>
@@ -9237,7 +8968,7 @@
       <c r="Y164" s="27"/>
       <c r="Z164" s="27"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="27"/>
       <c r="B165" s="27"/>
       <c r="C165" s="27"/>
@@ -9265,7 +8996,7 @@
       <c r="Y165" s="27"/>
       <c r="Z165" s="27"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="27"/>
       <c r="B166" s="27"/>
       <c r="C166" s="27"/>
@@ -9293,7 +9024,7 @@
       <c r="Y166" s="27"/>
       <c r="Z166" s="27"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="27"/>
       <c r="B167" s="27"/>
       <c r="C167" s="27"/>
@@ -9321,7 +9052,7 @@
       <c r="Y167" s="27"/>
       <c r="Z167" s="27"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="27"/>
       <c r="B168" s="27"/>
       <c r="C168" s="27"/>
@@ -9349,7 +9080,7 @@
       <c r="Y168" s="27"/>
       <c r="Z168" s="27"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="27"/>
       <c r="B169" s="27"/>
       <c r="C169" s="27"/>
@@ -9377,7 +9108,7 @@
       <c r="Y169" s="27"/>
       <c r="Z169" s="27"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="27"/>
       <c r="B170" s="27"/>
       <c r="C170" s="27"/>
@@ -9405,7 +9136,7 @@
       <c r="Y170" s="27"/>
       <c r="Z170" s="27"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="27"/>
       <c r="B171" s="27"/>
       <c r="C171" s="27"/>
@@ -9433,7 +9164,7 @@
       <c r="Y171" s="27"/>
       <c r="Z171" s="27"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="27"/>
       <c r="B172" s="27"/>
       <c r="C172" s="27"/>
@@ -9461,7 +9192,7 @@
       <c r="Y172" s="27"/>
       <c r="Z172" s="27"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="27"/>
       <c r="B173" s="27"/>
       <c r="C173" s="27"/>
@@ -9489,7 +9220,7 @@
       <c r="Y173" s="27"/>
       <c r="Z173" s="27"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="27"/>
       <c r="B174" s="27"/>
       <c r="C174" s="27"/>
@@ -9517,7 +9248,7 @@
       <c r="Y174" s="27"/>
       <c r="Z174" s="27"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="27"/>
       <c r="B175" s="27"/>
       <c r="C175" s="27"/>
@@ -9545,7 +9276,7 @@
       <c r="Y175" s="27"/>
       <c r="Z175" s="27"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="27"/>
       <c r="B176" s="27"/>
       <c r="C176" s="27"/>
@@ -9573,7 +9304,7 @@
       <c r="Y176" s="27"/>
       <c r="Z176" s="27"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="27"/>
       <c r="B177" s="27"/>
       <c r="C177" s="27"/>
@@ -9601,7 +9332,7 @@
       <c r="Y177" s="27"/>
       <c r="Z177" s="27"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="27"/>
       <c r="B178" s="27"/>
       <c r="C178" s="27"/>
@@ -9629,7 +9360,7 @@
       <c r="Y178" s="27"/>
       <c r="Z178" s="27"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="27"/>
       <c r="B179" s="27"/>
       <c r="C179" s="27"/>
@@ -9657,7 +9388,7 @@
       <c r="Y179" s="27"/>
       <c r="Z179" s="27"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="27"/>
       <c r="B180" s="27"/>
       <c r="C180" s="27"/>
@@ -9685,7 +9416,7 @@
       <c r="Y180" s="27"/>
       <c r="Z180" s="27"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="27"/>
       <c r="B181" s="27"/>
       <c r="C181" s="27"/>
@@ -9713,7 +9444,7 @@
       <c r="Y181" s="27"/>
       <c r="Z181" s="27"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="27"/>
       <c r="B182" s="27"/>
       <c r="C182" s="27"/>
@@ -9741,7 +9472,7 @@
       <c r="Y182" s="27"/>
       <c r="Z182" s="27"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="27"/>
       <c r="B183" s="27"/>
       <c r="C183" s="27"/>
@@ -9769,7 +9500,7 @@
       <c r="Y183" s="27"/>
       <c r="Z183" s="27"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="27"/>
       <c r="B184" s="27"/>
       <c r="C184" s="27"/>
@@ -9797,7 +9528,7 @@
       <c r="Y184" s="27"/>
       <c r="Z184" s="27"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="27"/>
       <c r="B185" s="27"/>
       <c r="C185" s="27"/>
@@ -9825,7 +9556,7 @@
       <c r="Y185" s="27"/>
       <c r="Z185" s="27"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="27"/>
       <c r="B186" s="27"/>
       <c r="C186" s="27"/>
@@ -9853,7 +9584,7 @@
       <c r="Y186" s="27"/>
       <c r="Z186" s="27"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="27"/>
       <c r="B187" s="27"/>
       <c r="C187" s="27"/>
@@ -9881,7 +9612,7 @@
       <c r="Y187" s="27"/>
       <c r="Z187" s="27"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="27"/>
       <c r="B188" s="27"/>
       <c r="C188" s="27"/>
@@ -9909,7 +9640,7 @@
       <c r="Y188" s="27"/>
       <c r="Z188" s="27"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="27"/>
       <c r="B189" s="27"/>
       <c r="C189" s="27"/>
@@ -9937,7 +9668,7 @@
       <c r="Y189" s="27"/>
       <c r="Z189" s="27"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="27"/>
       <c r="B190" s="27"/>
       <c r="C190" s="27"/>
@@ -9965,7 +9696,7 @@
       <c r="Y190" s="27"/>
       <c r="Z190" s="27"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="27"/>
       <c r="B191" s="27"/>
       <c r="C191" s="27"/>
@@ -9993,7 +9724,7 @@
       <c r="Y191" s="27"/>
       <c r="Z191" s="27"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="27"/>
       <c r="B192" s="27"/>
       <c r="C192" s="27"/>
@@ -10021,7 +9752,7 @@
       <c r="Y192" s="27"/>
       <c r="Z192" s="27"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="27"/>
       <c r="B193" s="27"/>
       <c r="C193" s="27"/>
@@ -10049,7 +9780,7 @@
       <c r="Y193" s="27"/>
       <c r="Z193" s="27"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="27"/>
       <c r="B194" s="27"/>
       <c r="C194" s="27"/>
@@ -10077,7 +9808,7 @@
       <c r="Y194" s="27"/>
       <c r="Z194" s="27"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="27"/>
       <c r="B195" s="27"/>
       <c r="C195" s="27"/>
@@ -10105,7 +9836,7 @@
       <c r="Y195" s="27"/>
       <c r="Z195" s="27"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="27"/>
       <c r="B196" s="27"/>
       <c r="C196" s="27"/>
@@ -10133,7 +9864,7 @@
       <c r="Y196" s="27"/>
       <c r="Z196" s="27"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="27"/>
       <c r="B197" s="27"/>
       <c r="C197" s="27"/>
@@ -10161,7 +9892,7 @@
       <c r="Y197" s="27"/>
       <c r="Z197" s="27"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="27"/>
       <c r="B198" s="27"/>
       <c r="C198" s="27"/>
@@ -10189,7 +9920,7 @@
       <c r="Y198" s="27"/>
       <c r="Z198" s="27"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="27"/>
       <c r="B199" s="27"/>
       <c r="C199" s="27"/>
@@ -10217,7 +9948,7 @@
       <c r="Y199" s="27"/>
       <c r="Z199" s="27"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="27"/>
       <c r="B200" s="27"/>
       <c r="C200" s="27"/>
@@ -10245,7 +9976,7 @@
       <c r="Y200" s="27"/>
       <c r="Z200" s="27"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="27"/>
       <c r="B201" s="27"/>
       <c r="C201" s="27"/>
@@ -10273,7 +10004,7 @@
       <c r="Y201" s="27"/>
       <c r="Z201" s="27"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="27"/>
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
@@ -10301,7 +10032,7 @@
       <c r="Y202" s="27"/>
       <c r="Z202" s="27"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="27"/>
       <c r="B203" s="27"/>
       <c r="C203" s="27"/>
@@ -10329,7 +10060,7 @@
       <c r="Y203" s="27"/>
       <c r="Z203" s="27"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="27"/>
       <c r="B204" s="27"/>
       <c r="C204" s="27"/>
@@ -10357,7 +10088,7 @@
       <c r="Y204" s="27"/>
       <c r="Z204" s="27"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="27"/>
       <c r="B205" s="27"/>
       <c r="C205" s="27"/>
@@ -10385,7 +10116,7 @@
       <c r="Y205" s="27"/>
       <c r="Z205" s="27"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="27"/>
       <c r="B206" s="27"/>
       <c r="C206" s="27"/>
@@ -10413,7 +10144,7 @@
       <c r="Y206" s="27"/>
       <c r="Z206" s="27"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="27"/>
       <c r="B207" s="27"/>
       <c r="C207" s="27"/>
@@ -10441,7 +10172,7 @@
       <c r="Y207" s="27"/>
       <c r="Z207" s="27"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="27"/>
       <c r="B208" s="27"/>
       <c r="C208" s="27"/>
@@ -10469,7 +10200,7 @@
       <c r="Y208" s="27"/>
       <c r="Z208" s="27"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="27"/>
       <c r="B209" s="27"/>
       <c r="C209" s="27"/>
@@ -10497,7 +10228,7 @@
       <c r="Y209" s="27"/>
       <c r="Z209" s="27"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="27"/>
       <c r="B210" s="27"/>
       <c r="C210" s="27"/>
@@ -10525,7 +10256,7 @@
       <c r="Y210" s="27"/>
       <c r="Z210" s="27"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="27"/>
       <c r="B211" s="27"/>
       <c r="C211" s="27"/>
@@ -10553,7 +10284,7 @@
       <c r="Y211" s="27"/>
       <c r="Z211" s="27"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="27"/>
       <c r="B212" s="27"/>
       <c r="C212" s="27"/>
@@ -10581,7 +10312,7 @@
       <c r="Y212" s="27"/>
       <c r="Z212" s="27"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="27"/>
       <c r="B213" s="27"/>
       <c r="C213" s="27"/>
@@ -10609,7 +10340,7 @@
       <c r="Y213" s="27"/>
       <c r="Z213" s="27"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="27"/>
       <c r="B214" s="27"/>
       <c r="C214" s="27"/>
@@ -10637,7 +10368,7 @@
       <c r="Y214" s="27"/>
       <c r="Z214" s="27"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="27"/>
       <c r="B215" s="27"/>
       <c r="C215" s="27"/>
@@ -10665,7 +10396,7 @@
       <c r="Y215" s="27"/>
       <c r="Z215" s="27"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="27"/>
       <c r="B216" s="27"/>
       <c r="C216" s="27"/>
@@ -10693,7 +10424,7 @@
       <c r="Y216" s="27"/>
       <c r="Z216" s="27"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="27"/>
       <c r="B217" s="27"/>
       <c r="C217" s="27"/>
@@ -10721,7 +10452,7 @@
       <c r="Y217" s="27"/>
       <c r="Z217" s="27"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="27"/>
       <c r="B218" s="27"/>
       <c r="C218" s="27"/>
@@ -10749,7 +10480,7 @@
       <c r="Y218" s="27"/>
       <c r="Z218" s="27"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="27"/>
       <c r="B219" s="27"/>
       <c r="C219" s="27"/>
@@ -10777,7 +10508,7 @@
       <c r="Y219" s="27"/>
       <c r="Z219" s="27"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="27"/>
       <c r="B220" s="27"/>
       <c r="C220" s="27"/>
@@ -10805,10 +10536,10 @@
       <c r="Y220" s="27"/>
       <c r="Z220" s="27"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -11586,9 +11317,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="landscape"/>
 </worksheet>
 </file>